--- a/MOCKTB2.xlsx
+++ b/MOCKTB2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CallumMatchett\python\streamlit\div7a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D753A65-3F19-47B4-AC00-8B5F8EDE3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AC2CC-A895-474F-ADB1-745F12C598CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28770" windowHeight="14385" xr2:uid="{5C1C986A-9DE9-44DA-8C71-DDD5F96BCB6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14415" xr2:uid="{5C1C986A-9DE9-44DA-8C71-DDD5F96BCB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="209">
   <si>
     <t>SourceAccountType</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Short Term Advance Account</t>
   </si>
   <si>
-    <t>Other Liabilities</t>
-  </si>
-  <si>
     <t>Business Development Loan</t>
   </si>
   <si>
@@ -110,27 +107,18 @@
     <t>Special Purpose Vehicle Account</t>
   </si>
   <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
     <t>Consulting Fees Receivable</t>
   </si>
   <si>
     <t>Private Company Advance</t>
   </si>
   <si>
-    <t>Adjustments to Retained Earnings</t>
-  </si>
-  <si>
     <t>Distribution Account Payable</t>
   </si>
   <si>
     <t>Entity B Current Account</t>
   </si>
   <si>
-    <t>Loans from Members</t>
-  </si>
-  <si>
     <t>Corporate Development Fund</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Management Participation Account</t>
   </si>
   <si>
-    <t>Equity</t>
-  </si>
-  <si>
     <t>Car Loan - Non-Current</t>
   </si>
   <si>
@@ -354,6 +339,333 @@
   </si>
   <si>
     <t>Inter-Company Loan</t>
+  </si>
+  <si>
+    <t>GroundTruth</t>
+  </si>
+  <si>
+    <t>Ali Bank Account</t>
+  </si>
+  <si>
+    <t>Anz</t>
+  </si>
+  <si>
+    <t>BF Westpac Bank Account</t>
+  </si>
+  <si>
+    <t>Business Bank Account</t>
+  </si>
+  <si>
+    <t>Business Bank Account #1</t>
+  </si>
+  <si>
+    <t>Business Savings Account</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>CBA Bank Account</t>
+  </si>
+  <si>
+    <t>CBA Business Overdraft</t>
+  </si>
+  <si>
+    <t>Chase Bank</t>
+  </si>
+  <si>
+    <t>General Cheque Account</t>
+  </si>
+  <si>
+    <t>NAB Bank Account</t>
+  </si>
+  <si>
+    <t>New Current Assets Bank test</t>
+  </si>
+  <si>
+    <t>Petty Cash</t>
+  </si>
+  <si>
+    <t>Petty Cash - Staff Amenities</t>
+  </si>
+  <si>
+    <t>Petty Cash/Cash On Hand</t>
+  </si>
+  <si>
+    <t>WBC Account</t>
+  </si>
+  <si>
+    <t>Westpac Bank</t>
+  </si>
+  <si>
+    <t>Westpac Bank Account</t>
+  </si>
+  <si>
+    <t>Borrowing Cost</t>
+  </si>
+  <si>
+    <t>Borrowing Costs</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Cattle on Hand</t>
+  </si>
+  <si>
+    <t>OPENING Beef stock</t>
+  </si>
+  <si>
+    <t>Stock on Hand</t>
+  </si>
+  <si>
+    <t>Stock-on-Hand</t>
+  </si>
+  <si>
+    <t>Directors Loan Account</t>
+  </si>
+  <si>
+    <t>Accrued Revenue/Deferred Revenue #22</t>
+  </si>
+  <si>
+    <t>Loan Director</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Accum. Depr.Plant &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Building - 67 Church St</t>
+  </si>
+  <si>
+    <t>Less Accum Depreciation</t>
+  </si>
+  <si>
+    <t>Less accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Less Accumulated Depreciation on Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Less Accumulated Depreciation on Office Equipment</t>
+  </si>
+  <si>
+    <t>Low value pool</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Accum Dep'n</t>
+  </si>
+  <si>
+    <t>Motor Vehicle at Cost</t>
+  </si>
+  <si>
+    <t>Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Motor vehicles at cost</t>
+  </si>
+  <si>
+    <t>Office Equipment</t>
+  </si>
+  <si>
+    <t>Plant &amp; Equipment At Cost</t>
+  </si>
+  <si>
+    <t>Plant and Equipment</t>
+  </si>
+  <si>
+    <t>Plant and equipment at cost</t>
+  </si>
+  <si>
+    <t>Preliminary expenses - at cost</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R) - EUR</t>
+  </si>
+  <si>
+    <t>Allowance for Bad Debt</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Loan to Xero</t>
+  </si>
+  <si>
+    <t>Loan Xero</t>
+  </si>
+  <si>
+    <t>PrepyamentsA</t>
+  </si>
+  <si>
+    <t>Sundry Debtors</t>
+  </si>
+  <si>
+    <t>Trade Debtors</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Food Expenses</t>
+  </si>
+  <si>
+    <t>Investments - Apple Inc.</t>
+  </si>
+  <si>
+    <t>Investments - ASX Limited</t>
+  </si>
+  <si>
+    <t>Investments - Australia And New Zealand Banking Group Limited</t>
+  </si>
+  <si>
+    <t>Investments - Bank of China Ltd</t>
+  </si>
+  <si>
+    <t>Investments - Coles Group Limited.</t>
+  </si>
+  <si>
+    <t>Investments - Colonial First State Personal Pension Plan - Balanced</t>
+  </si>
+  <si>
+    <t>Investments - CSL Limited</t>
+  </si>
+  <si>
+    <t>Investments - Demo Property</t>
+  </si>
+  <si>
+    <t>Investments - Facebook Inc</t>
+  </si>
+  <si>
+    <t>Investments - Google Inc</t>
+  </si>
+  <si>
+    <t>Investments - Ishares Global 100 ETF - Chess Depositary Interests 1:1 Ishglb100</t>
+  </si>
+  <si>
+    <t>Investments - Snap Inc</t>
+  </si>
+  <si>
+    <t>Investments - South32 Limited</t>
+  </si>
+  <si>
+    <t>Investments - Telstra Group Limited</t>
+  </si>
+  <si>
+    <t>Investments - Toyota Motor Corp</t>
+  </si>
+  <si>
+    <t>Investments - Tpg Telecom Limited</t>
+  </si>
+  <si>
+    <t>Investments - TPG Telecom Limited.</t>
+  </si>
+  <si>
+    <t>Investments - Tuas Limited</t>
+  </si>
+  <si>
+    <t>Investments - UBS Property Securities Fund</t>
+  </si>
+  <si>
+    <t>Investments - Vanguard Australian Shares Index ETF - Exchange Traded Fund Units Fully Paid</t>
+  </si>
+  <si>
+    <t>Investments - Wesfarmers Limited</t>
+  </si>
+  <si>
+    <t>Investments - Westpac Banking Corporation</t>
+  </si>
+  <si>
+    <t>ABN Withholding Credits</t>
+  </si>
+  <si>
+    <t>AL Bank</t>
+  </si>
+  <si>
+    <t>ANZ Bank</t>
+  </si>
+  <si>
+    <t>ANZ Bank Account</t>
+  </si>
+  <si>
+    <t>ANZ Business Account</t>
+  </si>
+  <si>
+    <t>ANZ Offset</t>
+  </si>
+  <si>
+    <t>Australia And New Zealand Banking Group Limited</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bank account1</t>
+  </si>
+  <si>
+    <t>Bank of China Ltd</t>
+  </si>
+  <si>
+    <t>Business Online Saver</t>
+  </si>
+  <si>
+    <t>Business Transaction Account</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash Account</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Cash at Bank</t>
+  </si>
+  <si>
+    <t>Cash At Bank - Balmain Private Cash Management</t>
+  </si>
+  <si>
+    <t>Cash At Bank - Macquarie CMA</t>
+  </si>
+  <si>
+    <t>Cash At Bank - Westpac Cash Reserve</t>
+  </si>
+  <si>
+    <t>Cash At Bank - Westpac Cheque Account</t>
+  </si>
+  <si>
+    <t>cash at bank-cash management account</t>
+  </si>
+  <si>
+    <t>cash at bank-cash management account 2</t>
+  </si>
+  <si>
+    <t>cash at bank-cash management account 3</t>
+  </si>
+  <si>
+    <t>cash at bank-nab operating account</t>
+  </si>
+  <si>
+    <t>cash in bank general</t>
+  </si>
+  <si>
+    <t>cash sales</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>Cheque account</t>
   </si>
 </sst>
 </file>
@@ -383,7 +695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -406,13 +718,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -749,11 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238C3C8C-8C26-4720-8DB2-53BA438118FD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F119"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +1090,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,16 +1115,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -810,8 +1138,11 @@
       <c r="F2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -828,10 +1159,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -839,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -848,10 +1182,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -859,19 +1196,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -882,67 +1222,76 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-348525.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -950,19 +1299,22 @@
       <c r="F9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -970,19 +1322,22 @@
       <c r="F10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -990,19 +1345,22 @@
       <c r="F11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -1010,19 +1368,22 @@
       <c r="F12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1030,19 +1391,22 @@
       <c r="F13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1050,19 +1414,22 @@
       <c r="F14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1070,19 +1437,22 @@
       <c r="F15">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1090,19 +1460,22 @@
       <c r="F16">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -1110,19 +1483,22 @@
       <c r="F17">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -1130,19 +1506,22 @@
       <c r="F18">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -1150,39 +1529,45 @@
       <c r="F19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-50243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1190,8 +1575,11 @@
       <c r="F21">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1199,90 +1587,102 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-165915.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>-261472.77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-16221.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>-286377.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1290,59 +1690,68 @@
       <c r="F26">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-18636.13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>383151.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -1350,19 +1759,22 @@
       <c r="F29">
         <v>500</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -1370,19 +1782,22 @@
       <c r="F30">
         <v>-459013.48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1390,8 +1805,11 @@
       <c r="F31">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1399,10 +1817,10 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1410,19 +1828,22 @@
       <c r="F32">
         <v>12127.97</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1430,8 +1851,11 @@
       <c r="F33">
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1439,10 +1863,10 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1450,19 +1874,22 @@
       <c r="F34">
         <v>182305.42</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -1470,19 +1897,22 @@
       <c r="F35">
         <v>483138.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -1490,19 +1920,22 @@
       <c r="F36">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -1510,19 +1943,22 @@
       <c r="F37">
         <v>-169062.26</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -1530,8 +1966,11 @@
       <c r="F38">
         <v>-471656.62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1539,10 +1978,10 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -1550,19 +1989,22 @@
       <c r="F39">
         <v>220049.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1570,10 +2012,13 @@
       <c r="F40">
         <v>500</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -1582,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1590,19 +2035,22 @@
       <c r="F41">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1610,19 +2058,22 @@
       <c r="F42">
         <v>1556.69</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1630,8 +2081,11 @@
       <c r="F43">
         <v>-101153.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +2096,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1650,19 +2104,22 @@
       <c r="F44">
         <v>496107.51</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1670,19 +2127,22 @@
       <c r="F45">
         <v>459376.85</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1690,19 +2150,22 @@
       <c r="F46">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1710,19 +2173,22 @@
       <c r="F47">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1730,39 +2196,45 @@
       <c r="F48">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>-1</v>
       </c>
       <c r="F49">
-        <v>-179867.63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E50">
         <v>-1</v>
@@ -1770,39 +2242,45 @@
       <c r="F50">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>-147886.44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1810,19 +2288,22 @@
       <c r="F52">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1830,19 +2311,22 @@
       <c r="F53">
         <v>500</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1850,19 +2334,22 @@
       <c r="F54">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1870,39 +2357,45 @@
       <c r="F55">
         <v>500</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>-1</v>
       </c>
       <c r="F56">
-        <v>355102.99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1910,19 +2403,22 @@
       <c r="F57">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1930,8 +2426,11 @@
       <c r="F58">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1939,19 +2438,22 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <v>-1</v>
       </c>
       <c r="F59">
-        <v>215326.63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1959,30 +2461,33 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>-135376.95999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -1990,19 +2495,22 @@
       <c r="F61">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2010,8 +2518,11 @@
       <c r="F62">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2019,50 +2530,56 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>108805.44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>70022.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2070,39 +2587,45 @@
       <c r="F65">
         <v>500</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>-1</v>
       </c>
       <c r="F66">
-        <v>342835.24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2110,30 +2633,36 @@
       <c r="F67">
         <v>500</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>-402981.89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -2142,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2150,8 +2679,11 @@
       <c r="F69">
         <v>500</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2159,30 +2691,33 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E70">
         <v>-1</v>
       </c>
       <c r="F70">
-        <v>292065.94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E71">
         <v>-1</v>
@@ -2190,39 +2725,45 @@
       <c r="F71">
         <v>500</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E72">
         <v>-1</v>
       </c>
       <c r="F72">
-        <v>218843.99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2230,39 +2771,45 @@
       <c r="F73">
         <v>500</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>-127479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E75">
         <v>-1</v>
@@ -2270,10 +2817,13 @@
       <c r="F75">
         <v>500</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2282,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <v>-1</v>
@@ -2290,19 +2840,22 @@
       <c r="F76">
         <v>500</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2310,19 +2863,22 @@
       <c r="F77">
         <v>500</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E78">
         <v>-1</v>
@@ -2330,19 +2886,22 @@
       <c r="F78">
         <v>500</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E79">
         <v>-1</v>
@@ -2350,8 +2909,11 @@
       <c r="F79">
         <v>500</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2359,90 +2921,102 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>-238204.85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>-59135.96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>-115998.13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E83">
         <v>-1</v>
       </c>
       <c r="F83">
-        <v>-419146.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2450,19 +3024,22 @@
       <c r="F84">
         <v>500</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2470,19 +3047,22 @@
       <c r="F85">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2490,8 +3070,11 @@
       <c r="F86">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2499,19 +3082,22 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E87">
         <v>-1</v>
       </c>
       <c r="F87">
-        <v>58282.81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2522,36 +3108,42 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E88">
         <v>-1</v>
       </c>
       <c r="F88">
-        <v>118290.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>-190456.46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2559,19 +3151,22 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>-22984.92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2579,30 +3174,33 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>84258.559999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2610,19 +3208,22 @@
       <c r="F92">
         <v>500</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E93">
         <v>-1</v>
@@ -2630,19 +3231,22 @@
       <c r="F93">
         <v>500</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2650,8 +3254,11 @@
       <c r="F94">
         <v>500</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2659,19 +3266,22 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>161978.62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -2679,19 +3289,22 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>-1</v>
       </c>
       <c r="F96">
-        <v>-363403.06</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2699,19 +3312,22 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E97">
         <v>-1</v>
       </c>
       <c r="F97">
-        <v>-100334.29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -2722,27 +3338,30 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>-197237.35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2750,10 +3369,13 @@
       <c r="F99">
         <v>500</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -2762,7 +3384,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2770,19 +3392,22 @@
       <c r="F100">
         <v>500</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E101">
         <v>-1</v>
@@ -2790,10 +3415,13 @@
       <c r="F101">
         <v>500</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
@@ -2802,7 +3430,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2810,10 +3438,13 @@
       <c r="F102">
         <v>500</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -2822,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E103">
         <v>-1</v>
@@ -2830,19 +3461,22 @@
       <c r="F103">
         <v>500</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E104">
         <v>-1</v>
@@ -2850,39 +3484,45 @@
       <c r="F104">
         <v>500</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>407361.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2890,10 +3530,13 @@
       <c r="F106">
         <v>500</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -2902,7 +3545,7 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2910,39 +3553,45 @@
       <c r="F107">
         <v>500</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E108">
         <v>-1</v>
       </c>
       <c r="F108">
-        <v>297363.27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E109">
         <v>-1</v>
@@ -2950,39 +3599,45 @@
       <c r="F109">
         <v>500</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E110">
         <v>-1</v>
       </c>
       <c r="F110">
-        <v>140368.76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>-1</v>
@@ -2990,10 +3645,13 @@
       <c r="F111">
         <v>500</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
@@ -3002,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E112">
         <v>-1</v>
@@ -3010,8 +3668,11 @@
       <c r="F112">
         <v>500</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3019,30 +3680,33 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E113">
         <v>-1</v>
       </c>
       <c r="F113">
-        <v>209411.64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E114">
         <v>-1</v>
@@ -3050,39 +3714,45 @@
       <c r="F114">
         <v>500</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E115">
         <v>-1</v>
       </c>
       <c r="F115">
-        <v>-248600.94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3090,19 +3760,22 @@
       <c r="F116">
         <v>120172.29</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3110,19 +3783,22 @@
       <c r="F117">
         <v>466338.88</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E118">
         <v>-1</v>
@@ -3130,19 +3806,22 @@
       <c r="F118">
         <v>29363.69</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E119">
         <v>-1</v>
@@ -3150,19 +3829,22 @@
       <c r="F119">
         <v>500</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3170,15 +3852,2795 @@
       <c r="F120">
         <v>222683.05</v>
       </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>5000</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>5000</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>5000</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>5000</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>5000</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>5000</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>5000</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>5000</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>109</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>5000</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>5000</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>5000</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>112</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>5000</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>5000</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>5000</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>115</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>5000</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>116</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>5000</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>117</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>5000</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>5000</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>5000</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>5000</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>5000</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>5000</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>122</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>5000</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>5000</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>5000</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>5000</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>5000</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>5000</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>5000</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>129</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>5000</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>5000</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>131</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>5000</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>5000</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>5000</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>5000</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>135</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>5000</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>5000</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>5000</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>5000</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>5000</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>5000</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>5000</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>5000</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>5000</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>5000</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>5000</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>146</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>5000</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>5000</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>148</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>5000</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>149</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>5000</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>128</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>5000</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>5000</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>5000</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>5000</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>153</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>5000</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>5000</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>5000</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>155</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>5000</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>5000</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>5000</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>158</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>5000</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>159</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>5000</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>160</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>5000</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>5000</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>162</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>5000</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>5000</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>5000</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>5000</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>5000</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>167</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>5000</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>168</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>5000</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>5000</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>170</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>5000</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>171</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>5000</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>172</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>5000</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>173</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>5000</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>174</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>5000</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>5000</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>176</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>5000</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>177</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>5000</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>178</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>5000</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>5000</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>180</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>5000</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>5000</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>182</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>5000</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>101</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>5000</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>5000</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>183</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>5000</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>184</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>5000</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>185</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>5000</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>186</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>5000</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>187</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>5000</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>188</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>5000</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>189</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>5000</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>190</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>5000</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>103</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>5000</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" t="s">
+        <v>104</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>5000</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" t="s">
+        <v>105</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>5000</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" t="s">
+        <v>191</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>5000</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" t="s">
+        <v>106</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>5000</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" t="s">
+        <v>192</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>5000</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" t="s">
+        <v>193</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>5000</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" t="s">
+        <v>194</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>5000</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" t="s">
+        <v>195</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>5000</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>196</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>5000</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" t="s">
+        <v>197</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>5000</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" t="s">
+        <v>198</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>5000</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" t="s">
+        <v>199</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>5000</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" t="s">
+        <v>200</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>5000</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>201</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>5000</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>202</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>5000</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>203</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>5000</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>204</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>5000</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>205</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>5000</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>107</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>5000</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" t="s">
+        <v>206</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>5000</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>5000</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>5000</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" t="s">
+        <v>109</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>5000</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" t="s">
+        <v>110</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>5000</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" t="s">
+        <v>208</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>5000</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A120" xr:uid="{238C3C8C-8C26-4720-8DB2-53BA438118FD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Liabilities"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A1120" xr:uid="{238C3C8C-8C26-4720-8DB2-53BA438118FD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>